--- a/database/httpsukladsilplbiblioteka.xlsx
+++ b/database/httpsukladsilplbiblioteka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,30 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosja_eskalacja/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Wejdą, czy nie wejdą? Perspektywy eskalacji militarnej w konflikcie rosyjsko – ukraińskim</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/usa_nato_rosja/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>USA – NATO – Rosja. Stan rozgrywki</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsukladsilplbiblioteka.xlsx
+++ b/database/httpsukladsilplbiblioteka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,570 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/bejrut/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Eksplozja w Bejrucie i głębsze problemy Libanu</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/bialorus_rosja/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Białoruś pod kontrolą Rosji zwiększa ryzyko kryzysu imigracyjnego</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/biden-putin/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Dlaczego Biden przypomniał sobie, że Putin jest mordercą?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/bliskowschodnia_telenowela/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bliskowschodniej telenoweli nuklearnej ciąg dalszy</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/dont-look-east-sojusz-karmelicki/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Don`t look East: Sojusz karmelicki</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/dont-look-east-wloskie-spojrzenie-na-sankcje-przeciw-rosji/</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Don`t look East: Włoskie spojrzenie na sankcje przeciw Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/erdogan_europa/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Erdogan będzie straszył migrantami, dopóki Europa nie pokaże mu kija</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/fakhrizadeh/</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Śmierć Fakhrizadeha i potencjalne implikacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/geopolityka-sztucznej-inteligencji/</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Geopolityka Sztucznej Inteligencji</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/gorskikarabach/</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Górski Karabach – ormiański czy azerski?</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/incydent-w-ciesninie-ormuz/</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Incydent w cieśninie Ormuz</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/irak/</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Niepewna przyszłość Iraku</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/izrael_ukraina_rosja/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Konflikt rosyjsko-ukraiński a Izrael</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/kessler/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kaskada Kesslera. Tym razem się udało.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/konflikt_a_a/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Eskalacja konfliktu Armenia-Azerbejdżan</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/konfrontacja-iranu-z-ue-koniec-porozumienia-nuklearnego/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Koniec porozumienia nuklearnego z Iranem? Konfrontacja na linii Bruksela-Teheran</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/koniec/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Europa: koniec gry na dwa fronty</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/liban_macron/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Przyszłość Libanu po wizycie Macrona</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/litwa_chiny/</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Litwa opuszcza chińską inicjatywę 17+1?</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/macron_maroko/</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Macron chce obecności UE w Maroku. Ceną jest Sahara Zachodnia</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/mozambik/</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Terroryzm w Mozambiku. Dlaczego świat interesuje się dopiero teraz?</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/nato_rosja/</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Czy NATO stać na jedność w obliczu gróźb ze strony Rosji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/nawalny/</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Powrót Nawalnego do Rosji. Tło i konsekwencje</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/netanjahu/</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Czy Netanjahu straci urząd?</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/nie-dajmy-sie-wepchnac-w-wojne-z-iranem-rozmowa-z-robertem-czulda/</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Nie dajmy się wepchnąć w wojnę z Iranem – rozmowa z Robertem Czuldą</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/niemcy_bron/</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Komu Niemcy sprzedają broń?</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/niemcy_zieloni/</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Niemiecka zielona zagadka</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/palimy-sobie-mosty-na-bliskim-wschodzie-rozmowa-z-witoldem-repetowiczem/</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Palimy sobie mosty na Bliskim Wschodzie – rozmowa z Witoldem Repetowiczem</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/paradoksy/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Paradoksy zarazy</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/po-pierwsze-geopolityka-tomasz-w-deptuch/</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Po pierwsze geopolityka – Tomasz W. Deptuch</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/prorosyjska_armenia/</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lapidarnie o prorosyjskiej Armenii</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/przewrot-kopernikanski-w-niemieckiej-polityce-powrot-z-nibylandii/</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Don`t look East: Przewrót kopernikański w niemieckiej polityce – powrót z Nibylandii</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/putin-nawalny/</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Ofensywa Nawalnego i chaotyczna obrona Putina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/putinizm/</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Koncepcja „Putinizmu” a konstytucja Rosji</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosja-armenia/</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rosja nie wspiera Armenii w Górskim Karabachu</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosja_afryka/</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wagner na Sahelu to nie główny problem obecności Rosji w Afryce</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosja_chiny_olimpiada/</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Współpraca Chin i Rosji w cieniu Zimowych Igrzysk Olimpijskich w Pekinie</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosja_ponizej/</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rosyjskie oddziaływania poniżej progu wojny</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rosjakaukaz/</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rosja wygrała południowy Kaukaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/rzez_ormian/</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Joe Biden nazywa rzeź Ormian ludobójstwem</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/solejmani/</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Generał Kasem Solejmani – irański architekt współczesnego węzła gordyjskiego</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/ukrainska_gra/</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Zrozumieć ukraińską grę</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/umarl-hegemon-niech-zyje-hegemon-czy-wznosimy-okrzyk-za-wczesnie/</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Umarł hegemon, niech żyje hegemon! Czy wznosimy okrzyk za wcześnie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/usa_indopacyfik/</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nowa strategia USA dla Indo-Pacyfiku</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/wsciekli-amerykanie-i-nieobliczalni-arabowie-czyli-konferencja-bliskowschodnia/</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Wściekli Amerykanie i nieobliczalni Arabowie, czyli konferencja bliskowschodnia</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/wybory_izrael/</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Podsumowanie wyborów parlamentarnych w Izraelu</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/wywiad-z-witoldem-repetowiczem/</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wywiad z Witoldem Repetowiczem</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsukladsilplbiblioteka.xlsx
+++ b/database/httpsukladsilplbiblioteka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,42 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/co-jesli-zabraknie-zywnosci-w-mena/</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Co jeśli zabraknie żywności w MENA?</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/inicjatywa-dyplomatyczna-izraela-w-sprawie-ukrainy-i-iranu/</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Inicjatywa dyplomatyczna Izraela w sprawie Ukrainy… i Iranu</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/wizyta-prezydenta-izraela-w-ankarze/</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wizyta prezydenta Izraela w Ankarze</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsukladsilplbiblioteka.xlsx
+++ b/database/httpsukladsilplbiblioteka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,6 +1393,282 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="#"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Zgoda</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="http://ukladsil.pl/#kontakt"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Kontakt</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="http://ukladsil.pl/?product_cat=bez-kategorii"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Kup magazyn!</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="http://ukladsil.pl/?product_cat=ksiazki"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Książki</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="http://ukladsil.pl/?product_cat=prenumerata"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Prenumerata</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/author/zioras/"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>zioras</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/biblioteka/"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Komentarze</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/biblioteka/page/2/"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>« Starsze wpisy</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/czy-algieria-dostarczy-wiecej-gazu-europie/"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Czy Algieria dostarczy więcej gazu Europie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/czy-turcja-przekaze-s-400-ukrainie/"</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Czy Turcja przekaże S-400 Ukrainie?</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/koszyk/"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Elementy 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/ministrowie-spraw-zagranicznych-chin-i-indii-rozmawiaja-o-wzajemnych-relacjach-i-nawoluja-do-zawieszenia-broni-na-ukrainie/"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ministrowie spraw zagranicznych Chin i Indii rozmawiają o wzajemnych relacjach i nawołują do zawieszenia broni na Ukrainie</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/moje-konto/"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Moje konto</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/na-ile-mozemy-uwolnic-sie-od-rosyjskiego-gazu/"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Na ile możemy uwolnić się od rosyjskiego gazu?</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/produkt/zostan-patronem-ukladu-sil/"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wesprzyj nas</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/regulamin/"</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Regulamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/rosja-i-jej-azjatyckie-okno-na-swiat-czy-pekin-i-new-delhi-pomoga-moskwie-przetrwac-uderzenie-zachodnich-sankcji/"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Rosja i jej azjatyckie „okno na świat”. Czy Pekin i New Delhi pomogą Moskwie przetrwać uderzenie zachodnich sankcji?</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/rosyjska-inwazja-na-ukraine-szkodzi-projektowi-beltroad/"</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rosyjska inwazja na Ukrainę szkodzi projektowi Belt&amp;amp;Road</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/tureckie-dylematy-wokol-nato/"</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Tureckie dylematy wokół NATO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/ukraina-wciaz-bez-dostaw-systemow-przeciwlotniczych-s-300/"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Ukraina wciąż bez dostaw systemów przeciwlotniczych S-300</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/wybory-prezydenckie-w-korei-poludniowej-i-ich-skutki/"</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Wybory prezydenckie w Korei Południowej i ich skutki</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="https://ukladsil.pl/zapowiedz-publikacji-nowej-strategii-bezpieczenstwa-i-obrony-usa-i-propozycje-nowego-budzetu-pentagonu/"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Zapowiedź publikacji nowej Strategii Bezpieczeństwa i Obrony USA i propozycje nowego budżetu Pentagonu</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/href="mailto:kontakt@ukladsil.pl"</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>kontakt@ukladsil.pl</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsukladsilplbiblioteka.xlsx
+++ b/database/httpsukladsilplbiblioteka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,6 +1669,126 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/chiny-i-iran-zaciesniaja-wspolprace/</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Chiny i Iran zacieśniają współpracę</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/francja-i-indie-wiecej-wspolpracy-w-indo-pacyfiku-cyberprzestrzeni-i-kosmosie/</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Francja i Indie: więcej współpracy w Indo-Pacyfiku, cyberprzestrzeni i kosmosie</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/jaka-przyszlosc-unii-europejskiej/</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Jaka przyszłość Unii Europejskiej?</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/pierwsza-od-5-lat-wizyta-prezydenta-turcji-w-arabii-saudyjskiej/</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pierwsza od 5 lat wizyta prezydenta Turcji w Arabii Saudyjskiej</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/polska-wschodnia-flanka-i-miraze-europejskiej-suwerennosci/</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Polska, wschodnia flanka i miraże „europejskiej suwerenności”</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/przed-nato-kolejny-test-jednosci/</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Przed NATO kolejny test jedności</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/przewodniczaca-komisji-europejskiej-w-indiach/</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Przewodnicząca Komisji Europejskiej w Indiach</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/reportaz-z-ukrainy-16-minut-terroru/</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Reportaż z Ukrainy: 16 minut terroru</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/ukraina-kontratakuje-drony-i-wojna-informacyjna/</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ukraina kontratakuje. Drony i wojna informacyjna</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://ukladsil.pl/usa-rozmieszcza-f-35-i-f-15-na-krecie/</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>USA rozmieszczą F-35 i F-15 na Krecie</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
